--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail13 Features.xlsx
@@ -3533,7 +3533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3544,29 +3544,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3587,115 +3585,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3712,72 +3700,66 @@
         <v>1.473894242660451e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.78849597676225</v>
+        <v>8.560646075810246e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.134250713818743</v>
+        <v>4.089759921615144e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.560646075810246e-07</v>
+        <v>0.06327438731063383</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.089759921615144e-06</v>
+        <v>0.2843112670738459</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06327438731063383</v>
+        <v>0.08469669310999973</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2843112670738459</v>
+        <v>1.923241751014128</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08469669310999973</v>
+        <v>1.868201386291117</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.943654310276308</v>
+        <v>5.090768264928018</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.868201386291117</v>
+        <v>5.09843034506191e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.090768264928018</v>
+        <v>462325382.2021958</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.09843034506191e-16</v>
+        <v>2.617465695540882e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>462325382.2021958</v>
+        <v>108.9762765528373</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.617465695540882e-07</v>
+        <v>0.0001676921302176983</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>108.9762765528373</v>
+        <v>10.75511621165985</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001676921302176983</v>
+        <v>1.389931522169966</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.75511621165985</v>
+        <v>0.01939737207901405</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.389931522169966</v>
+        <v>3.519768633339825</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01939737207901405</v>
+        <v>0.9619842081886639</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.519768633339825</v>
+        <v>1.157074403517772</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9619842081886639</v>
+        <v>45</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.157074403517772</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.721849133744576</v>
       </c>
     </row>
@@ -3792,72 +3774,66 @@
         <v>1.258797833923849e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.195627447945541</v>
+        <v>6.683297670610157e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.4594151466473</v>
+        <v>4.097558007400321e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.683297670610157e-07</v>
+        <v>0.051476324062474</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.097558007400321e-06</v>
+        <v>0.2766367221235942</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.051476324062474</v>
+        <v>0.07907015688245318</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2766367221235942</v>
+        <v>1.918250957712976</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07907015688245318</v>
+        <v>1.820231706223958</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.938570394780771</v>
+        <v>4.69946763658945</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.820231706223958</v>
+        <v>7.016851327761736e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.69946763658945</v>
+        <v>344995381.3293384</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.016851327761736e-16</v>
+        <v>3.502202228867584e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>344995381.3293384</v>
+        <v>83.51583675540238</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.502202228867584e-07</v>
+        <v>0.0002092704651803627</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>83.51583675540238</v>
+        <v>11.32552157393821</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002092704651803627</v>
+        <v>1.229421442823931</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.32552157393821</v>
+        <v>0.02684258661064625</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.229421442823931</v>
+        <v>2.847364182705676</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02684258661064625</v>
+        <v>0.963765519502555</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.847364182705676</v>
+        <v>1.187972437304259</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.963765519502555</v>
+        <v>45</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.187972437304259</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.9248432599396547</v>
       </c>
     </row>
@@ -3872,72 +3848,66 @@
         <v>1.125928442276977e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.7556861152639431</v>
+        <v>5.281167096562316e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.2952658234950301</v>
+        <v>4.103006964418525e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.281167096562316e-07</v>
+        <v>0.04044733451742248</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.103006964418525e-06</v>
+        <v>0.2684764556248673</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04044733451742248</v>
+        <v>0.07363574311198486</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2684764556248673</v>
+        <v>1.85623751802988</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07363574311198486</v>
+        <v>1.886870826391353</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.847901361718479</v>
+        <v>5.914861943086397</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.886870826391353</v>
+        <v>7.625308358948546e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.914861943086397</v>
+        <v>324364234.0832568</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.625308358948546e-16</v>
+        <v>3.661917222937911e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>324364234.0832568</v>
+        <v>80.22751352970927</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.661917222937911e-07</v>
+        <v>0.0002215407118580042</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>80.22751352970927</v>
+        <v>13.45891028509188</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002215407118580042</v>
+        <v>0.9947760690929398</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.45891028509188</v>
+        <v>0.04013038657098113</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.9947760690929398</v>
+        <v>2.409571976453524</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.04013038657098113</v>
+        <v>0.959841345823905</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.409571976453524</v>
+        <v>1.380706767760968</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.959841345823905</v>
+        <v>46</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.380706767760968</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.8115012254964401</v>
       </c>
     </row>
@@ -3952,72 +3922,66 @@
         <v>1.048947863488297e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5230494167680968</v>
+        <v>4.187274338397338e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.060892483699431</v>
+        <v>4.106789102825645e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.187274338397338e-07</v>
+        <v>0.02915692159677924</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.106789102825645e-06</v>
+        <v>0.2578021188351686</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02915692159677924</v>
+        <v>0.06725389672879988</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2578021188351686</v>
+        <v>1.812103662418852</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06725389672879988</v>
+        <v>1.699166857719592</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.780492202677932</v>
+        <v>5.574075793695922</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.699166857719592</v>
+        <v>2.205127327962845e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.574075793695922</v>
+        <v>109547108.0047888</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.205127327962845e-15</v>
+        <v>1.075996142424917e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>109547108.0047888</v>
+        <v>26.46278237121685</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.075996142424917e-06</v>
+        <v>0.0002349156863492828</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>26.46278237121685</v>
+        <v>9.662887438587328</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002349156863492828</v>
+        <v>1.661677100779576</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.662887438587328</v>
+        <v>0.02193440502486881</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.661677100779576</v>
+        <v>2.791930166931623</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02193440502486881</v>
+        <v>0.9578506500829489</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.791930166931623</v>
+        <v>1.692900867998357</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9578506500829489</v>
+        <v>7</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.692900867998357</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4019697835567412</v>
       </c>
     </row>
@@ -4394,7 +4358,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.408003055074971</v>
+        <v>1.404474463872381</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.222939915506365</v>
@@ -4483,7 +4447,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.425728857607382</v>
+        <v>1.419388094581715</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.223596105526037</v>
@@ -4572,7 +4536,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.411557194974719</v>
+        <v>1.404245981906094</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.253294863143005</v>
@@ -4661,7 +4625,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.421895633575228</v>
+        <v>1.413460581684965</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.133815670375574</v>
@@ -4750,7 +4714,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.423383201262614</v>
+        <v>1.41820635562159</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.217872025563701</v>
@@ -4839,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.422100359163132</v>
+        <v>1.420170626166767</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.218105364758831</v>
@@ -4928,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.435158355356725</v>
+        <v>1.436364229362063</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.263377391579674</v>
@@ -5017,7 +4981,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.461352838911872</v>
+        <v>1.458706413980177</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.614578629427013</v>
@@ -5106,7 +5070,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.456649814908836</v>
+        <v>1.458395428899221</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.379427028752204</v>
@@ -5195,7 +5159,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.450089506468718</v>
+        <v>1.449334965535994</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.541408851012358</v>
@@ -5284,7 +5248,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.438860569273515</v>
+        <v>1.438883442724193</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.501502850210464</v>
@@ -5373,7 +5337,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.461386090115484</v>
+        <v>1.45891355734927</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.496795136835031</v>
@@ -5462,7 +5426,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.478368890854005</v>
+        <v>1.472970710701089</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.267616538036773</v>
@@ -5551,7 +5515,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.475902117446447</v>
+        <v>1.474344482470362</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.436186251524972</v>
@@ -5640,7 +5604,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.465367663715025</v>
+        <v>1.460497115996763</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.563177330138416</v>
@@ -5729,7 +5693,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.469710236610326</v>
+        <v>1.462896669260864</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.479704382308618</v>
@@ -5818,7 +5782,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.473134572795545</v>
+        <v>1.46524687116419</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.515641517710583</v>
@@ -5907,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.480258483549054</v>
+        <v>1.47589598194307</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.330129494527273</v>
@@ -5996,7 +5960,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.469420236615497</v>
+        <v>1.457998394741157</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.419141991455008</v>
@@ -6085,7 +6049,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.478619906821556</v>
+        <v>1.457809143790415</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.466986317470234</v>
@@ -6174,7 +6138,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.486597230237894</v>
+        <v>1.466908147552612</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.695300100480643</v>
@@ -6263,7 +6227,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.474205772279778</v>
+        <v>1.456996347005621</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.473574404834512</v>
@@ -6352,7 +6316,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.476362543396212</v>
+        <v>1.455972771687448</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.651233539964103</v>
@@ -6441,7 +6405,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.478807382129613</v>
+        <v>1.450396445654338</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.515841597997994</v>
@@ -6530,7 +6494,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.494832710621318</v>
+        <v>1.468962508832647</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.516351709635587</v>
@@ -6619,7 +6583,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.502529717429498</v>
+        <v>1.469055082764682</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.7734315966246</v>
@@ -6708,7 +6672,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.478482713393909</v>
+        <v>1.456420789348214</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.818553700910928</v>
@@ -6797,7 +6761,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.471019765585422</v>
+        <v>1.452356746412547</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.590380755947768</v>
@@ -6886,7 +6850,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.479152818450639</v>
+        <v>1.458441766480502</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.682364327569996</v>
@@ -6975,7 +6939,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.490249551461065</v>
+        <v>1.46828990898246</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.825487232852186</v>
@@ -7064,7 +7028,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.489812738663191</v>
+        <v>1.466248053133684</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.70772895168037</v>
@@ -7153,7 +7117,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.46036571042109</v>
+        <v>1.447366452838102</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.804443504610555</v>
@@ -7242,7 +7206,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.470022934688887</v>
+        <v>1.450989328472127</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.576924628873268</v>
@@ -7331,7 +7295,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.488554024887598</v>
+        <v>1.468872949767063</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.643395228300497</v>
@@ -7420,7 +7384,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.495518588268785</v>
+        <v>1.478538710420479</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.654637156305095</v>
@@ -7509,7 +7473,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.481658265598613</v>
+        <v>1.466283096752551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.448755927239843</v>
@@ -7598,7 +7562,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.488625488415108</v>
+        <v>1.473031569224214</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.586540377123502</v>
@@ -7687,7 +7651,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.485217428937262</v>
+        <v>1.470197703255493</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.674682300386105</v>
@@ -7776,7 +7740,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.483329737870201</v>
+        <v>1.479506861314336</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.549404249956472</v>
@@ -7865,7 +7829,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.475466037090289</v>
+        <v>1.468209810733713</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.516417907127487</v>
@@ -7954,7 +7918,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.48801513614066</v>
+        <v>1.479148141593643</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.73914220053826</v>
@@ -8043,7 +8007,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.49505969944539</v>
+        <v>1.48072186263506</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.374192302643828</v>
@@ -8132,7 +8096,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.504826706205517</v>
+        <v>1.487383828081848</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.422064670642015</v>
@@ -8221,7 +8185,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.52145386250093</v>
+        <v>1.501919214902257</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.475935704336353</v>
@@ -8310,7 +8274,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.511271363073091</v>
+        <v>1.493669112828932</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.471016652917626</v>
@@ -8399,7 +8363,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.497239200994525</v>
+        <v>1.479495808553329</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.508043658610365</v>
@@ -8488,7 +8452,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.481994073483766</v>
+        <v>1.470511455624533</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.435598994756585</v>
@@ -8577,7 +8541,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.480509351314858</v>
+        <v>1.470944439783736</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.299320167393606</v>
@@ -8666,7 +8630,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.477883646054681</v>
+        <v>1.471313977458441</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.337250124158703</v>
@@ -8952,7 +8916,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.620692192439739</v>
+        <v>1.608474753246597</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.839000596999381</v>
@@ -9041,7 +9005,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.614069529973091</v>
+        <v>1.603422640823591</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.789690535617141</v>
@@ -9130,7 +9094,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.601772462972577</v>
+        <v>1.589707358373611</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.742979511646383</v>
@@ -9219,7 +9183,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.601008522342114</v>
+        <v>1.590489378013753</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.76343433147188</v>
@@ -9308,7 +9272,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.609615964197171</v>
+        <v>1.607536149603927</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.726915516438891</v>
@@ -9397,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.612555245941233</v>
+        <v>1.607050292498279</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.02575579078593</v>
@@ -9486,7 +9450,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.615775802242673</v>
+        <v>1.612018104020714</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.240759047527511</v>
@@ -9575,7 +9539,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.629486145476918</v>
+        <v>1.622174433747358</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.248106123698777</v>
@@ -9664,7 +9628,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.639765079936747</v>
+        <v>1.629950442780314</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.034113810305937</v>
@@ -9753,7 +9717,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.632210832224542</v>
+        <v>1.620028523631811</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.184313860446702</v>
@@ -9842,7 +9806,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.631465440918716</v>
+        <v>1.613644912314641</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.019662600171213</v>
@@ -9931,7 +9895,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.625033446091755</v>
+        <v>1.610290292712293</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.212540684822649</v>
@@ -10020,7 +9984,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.627558948438536</v>
+        <v>1.614148965606459</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.363272198211379</v>
@@ -10109,7 +10073,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611775529686349</v>
+        <v>1.601096183163315</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.102134615258011</v>
@@ -10198,7 +10162,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.600574250991311</v>
+        <v>1.588154965736835</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.688369483437638</v>
@@ -10287,7 +10251,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.593281438653882</v>
+        <v>1.575369541545713</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.979026648960572</v>
@@ -10376,7 +10340,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.595031098191035</v>
+        <v>1.575659750387172</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.862546278638394</v>
@@ -10465,7 +10429,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.60400672642098</v>
+        <v>1.579907749905582</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.983959729374085</v>
@@ -10554,7 +10518,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.610395949787901</v>
+        <v>1.582251850226414</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.97565940721968</v>
@@ -10643,7 +10607,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.616528048515786</v>
+        <v>1.574851334108896</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.235089366479626</v>
@@ -10732,7 +10696,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.627510186574111</v>
+        <v>1.5852328614929</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.171430532908772</v>
@@ -10821,7 +10785,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.622464904181214</v>
+        <v>1.576018373428441</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.10327953248666</v>
@@ -10910,7 +10874,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.612423282412602</v>
+        <v>1.563452401008682</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.903188089773788</v>
@@ -10999,7 +10963,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.602672226017977</v>
+        <v>1.541817179929493</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.801949338069269</v>
@@ -11088,7 +11052,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.607850222568033</v>
+        <v>1.542722970054851</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.844789359285054</v>
@@ -11177,7 +11141,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.597215274178515</v>
+        <v>1.5336291836903</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.977440490991194</v>
@@ -11266,7 +11230,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.595805937078578</v>
+        <v>1.531719637935465</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.79350095467225</v>
@@ -11355,7 +11319,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.601490175947463</v>
+        <v>1.532057758279456</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.81843116695962</v>
@@ -11444,7 +11408,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618381725893523</v>
+        <v>1.544174282393505</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.740464888959954</v>
@@ -11533,7 +11497,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.630733468458905</v>
+        <v>1.55494692646912</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.199884280754141</v>
@@ -11622,7 +11586,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.633716324406019</v>
+        <v>1.557226763038179</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.50114880283661</v>
@@ -11711,7 +11675,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.636130090194094</v>
+        <v>1.561448142521117</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.47468640820373</v>
@@ -11800,7 +11764,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.631443300769839</v>
+        <v>1.560504275118542</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.323248855982878</v>
@@ -11889,7 +11853,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.617436601313694</v>
+        <v>1.546599688505441</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.443975579179139</v>
@@ -11978,7 +11942,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.61378886988676</v>
+        <v>1.549894820280669</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.420512659117577</v>
@@ -12067,7 +12031,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.596263600814772</v>
+        <v>1.539239397785413</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.297124222915835</v>
@@ -12156,7 +12120,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.58719748342914</v>
+        <v>1.535435319022536</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.906514504167292</v>
@@ -12245,7 +12209,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.587001223227865</v>
+        <v>1.540580247382839</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.988249451027258</v>
@@ -12334,7 +12298,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.576888373617115</v>
+        <v>1.544153993419891</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.270070215881671</v>
@@ -12423,7 +12387,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.573851813676657</v>
+        <v>1.542147555275346</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.083285488320926</v>
@@ -12512,7 +12476,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.576435853044196</v>
+        <v>1.546633622656192</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.925159467586978</v>
@@ -12601,7 +12565,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.576909753537944</v>
+        <v>1.548401404376936</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.978294863235152</v>
@@ -12690,7 +12654,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.571650026005447</v>
+        <v>1.542902788881449</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.956424088135509</v>
@@ -12779,7 +12743,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.568098198337812</v>
+        <v>1.541332661053707</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.851183264395917</v>
@@ -12868,7 +12832,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.561982294012804</v>
+        <v>1.536308629588554</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.984411933645534</v>
@@ -12957,7 +12921,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.564417498525926</v>
+        <v>1.541609231346939</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.004203451314303</v>
@@ -13046,7 +13010,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.560413663189247</v>
+        <v>1.538452372729184</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.96419040370077</v>
@@ -13135,7 +13099,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.566544567739779</v>
+        <v>1.541304154301504</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.152316566147485</v>
@@ -13224,7 +13188,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.575689368867315</v>
+        <v>1.552762566388349</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.997553777043573</v>
@@ -13510,7 +13474,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.534017670515681</v>
+        <v>1.513357502628859</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.784845989287815</v>
@@ -13599,7 +13563,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.543593973817656</v>
+        <v>1.518680976927061</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.7197308689034</v>
@@ -13688,7 +13652,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.526127023045132</v>
+        <v>1.505391751367517</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.784386982976158</v>
@@ -13777,7 +13741,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.531635520982316</v>
+        <v>1.512937960193157</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.5610343150133</v>
@@ -13866,7 +13830,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.534387259675705</v>
+        <v>1.522197465470849</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.927173832610645</v>
@@ -13955,7 +13919,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.53127764738492</v>
+        <v>1.517089225155877</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.642952835806028</v>
@@ -14044,7 +14008,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.532393616397855</v>
+        <v>1.515292253765786</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.461273648811889</v>
@@ -14133,7 +14097,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.547779061868782</v>
+        <v>1.528817482781746</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.518017035436962</v>
@@ -14222,7 +14186,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557953442667627</v>
+        <v>1.533374134512523</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.837603371445293</v>
@@ -14311,7 +14275,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.562722408558216</v>
+        <v>1.54031978307143</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.949278300423351</v>
@@ -14400,7 +14364,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.563858640892876</v>
+        <v>1.542321971715742</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.994648362362329</v>
@@ -14489,7 +14453,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.575802217003421</v>
+        <v>1.552226143123583</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.003485809456958</v>
@@ -14578,7 +14542,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.550779426296262</v>
+        <v>1.530918764446672</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.70220547788498</v>
@@ -14667,7 +14631,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.545807951569575</v>
+        <v>1.529198108597009</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.635813185179851</v>
@@ -14756,7 +14720,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.54093257388335</v>
+        <v>1.521349928028927</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.725214874421665</v>
@@ -14845,7 +14809,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.550057085395018</v>
+        <v>1.52715608658007</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.871154849449655</v>
@@ -14934,7 +14898,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.546577518848446</v>
+        <v>1.528523299295389</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.725056557919838</v>
@@ -15023,7 +14987,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.55740255063713</v>
+        <v>1.527623678433669</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.60421395000887</v>
@@ -15112,7 +15076,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.555461975784513</v>
+        <v>1.520628371384348</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.342805137351122</v>
@@ -15201,7 +15165,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.565568642881803</v>
+        <v>1.520571473907697</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.718123319889747</v>
@@ -15290,7 +15254,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565768546798726</v>
+        <v>1.530287079925192</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.694779591121323</v>
@@ -15379,7 +15343,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.561975340663269</v>
+        <v>1.523944696294852</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.213503461804319</v>
@@ -15468,7 +15432,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.552892349128042</v>
+        <v>1.509487857417548</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.309591159615905</v>
@@ -15557,7 +15521,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.564115614489067</v>
+        <v>1.503863099867232</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.635088794083766</v>
@@ -15646,7 +15610,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.542533107695972</v>
+        <v>1.482971169186542</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.434767455212518</v>
@@ -15735,7 +15699,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.54063357038077</v>
+        <v>1.480935418816979</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.401176429346548</v>
@@ -15824,7 +15788,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.54084025121719</v>
+        <v>1.48149352506639</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.598051742556587</v>
@@ -15913,7 +15877,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.556433015036136</v>
+        <v>1.49503380886779</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.441442043032728</v>
@@ -16002,7 +15966,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.556398830415481</v>
+        <v>1.497342509526921</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.511048837303124</v>
@@ -16091,7 +16055,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.564445475666267</v>
+        <v>1.504248187221441</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.479480673341863</v>
@@ -16180,7 +16144,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.564939848008546</v>
+        <v>1.502240637744928</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.399048499140603</v>
@@ -16269,7 +16233,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.559373356317255</v>
+        <v>1.497373803307886</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.433816054746763</v>
@@ -16358,7 +16322,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.561375292542207</v>
+        <v>1.501680506039368</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.395845052220017</v>
@@ -16447,7 +16411,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.546623257878764</v>
+        <v>1.491748254953366</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.634311773566313</v>
@@ -16536,7 +16500,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.539741373628903</v>
+        <v>1.492703223193736</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.647112845143054</v>
@@ -16625,7 +16589,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.535129612698901</v>
+        <v>1.48526106079375</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.302901668463651</v>
@@ -16714,7 +16678,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.524414670333738</v>
+        <v>1.478044857873014</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.621980373258125</v>
@@ -16803,7 +16767,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.530145041859049</v>
+        <v>1.489066778252677</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.354365413347555</v>
@@ -16892,7 +16856,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.515689503101153</v>
+        <v>1.486623624812639</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.455508906306042</v>
@@ -16981,7 +16945,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.53398298042343</v>
+        <v>1.502618492469121</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.081341225149148</v>
@@ -17070,7 +17034,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.538422100684606</v>
+        <v>1.506288714949718</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.146080483333506</v>
@@ -17159,7 +17123,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.529233931703268</v>
+        <v>1.498322307967614</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.12956372658172</v>
@@ -17248,7 +17212,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.527299598379499</v>
+        <v>1.494118091823042</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.763970064455234</v>
@@ -17337,7 +17301,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.519266784638662</v>
+        <v>1.485885638386215</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.803830820786109</v>
@@ -17426,7 +17390,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.513948636703469</v>
+        <v>1.478265438669123</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.851378069441934</v>
@@ -17515,7 +17479,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.514896803101373</v>
+        <v>1.476561075532808</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.96426346344253</v>
@@ -17604,7 +17568,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.502410663807553</v>
+        <v>1.465241716847788</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.976769003369292</v>
@@ -17693,7 +17657,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.509295004308209</v>
+        <v>1.474175653394217</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.972908851796408</v>
@@ -17782,7 +17746,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.514417449553908</v>
+        <v>1.480091204958169</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.198098388839361</v>
@@ -18068,7 +18032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.528962883424989</v>
+        <v>1.504437436389023</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.829561390738571</v>
@@ -18157,7 +18121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.535209746920529</v>
+        <v>1.51570002578989</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.805636664018227</v>
@@ -18246,7 +18210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.542587197877596</v>
+        <v>1.5219821485377</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.850907664580255</v>
@@ -18335,7 +18299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.536507743337452</v>
+        <v>1.520943147246114</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.619286832227873</v>
@@ -18424,7 +18388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.523403321558293</v>
+        <v>1.51082633069227</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.812989622162144</v>
@@ -18513,7 +18477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.527363740115585</v>
+        <v>1.514911294788583</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.835611881833982</v>
@@ -18602,7 +18566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.544485825418927</v>
+        <v>1.530731682081812</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.882489995452805</v>
@@ -18691,7 +18655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.528832689542514</v>
+        <v>1.51137982556219</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.461656006802603</v>
@@ -18780,7 +18744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.478262991068249</v>
+        <v>1.463613228471566</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.547727148930909</v>
@@ -18869,7 +18833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.469305826810796</v>
+        <v>1.466921161768241</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.496765263664436</v>
@@ -18958,7 +18922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.458412649686938</v>
+        <v>1.458462208377953</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.37613790140769</v>
@@ -19047,7 +19011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.481198103201939</v>
+        <v>1.472890422593409</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.658426141812617</v>
@@ -19136,7 +19100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.447766540219894</v>
+        <v>1.440022521090442</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.269110092922997</v>
@@ -19225,7 +19189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.430983077918492</v>
+        <v>1.422015236918687</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.277361164982566</v>
@@ -19314,7 +19278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.416243300346447</v>
+        <v>1.41013618065178</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.322651007842067</v>
@@ -19403,7 +19367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.422980078236805</v>
+        <v>1.419890793410489</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.327866760308825</v>
@@ -19492,7 +19456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.41725929966085</v>
+        <v>1.411550372513577</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.257013719380377</v>
@@ -19581,7 +19545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.419590289449801</v>
+        <v>1.41094005955684</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.304776319380573</v>
@@ -19670,7 +19634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.407026202420346</v>
+        <v>1.397928451181851</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.358482970028874</v>
@@ -19759,7 +19723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.399578653524975</v>
+        <v>1.390630625748187</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.27709501707945</v>
@@ -19848,7 +19812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.406640324271457</v>
+        <v>1.401154468260533</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.390334089871113</v>
@@ -19937,7 +19901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.387969900536235</v>
+        <v>1.38106920370774</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.35510034274171</v>
@@ -20026,7 +19990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.3791758683587</v>
+        <v>1.37404453536368</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.113470077373722</v>
@@ -20115,7 +20079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.396826100259052</v>
+        <v>1.377146879032421</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.299417942448718</v>
@@ -20204,7 +20168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.39820088144647</v>
+        <v>1.368213192326005</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.37655844430538</v>
@@ -20293,7 +20257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.403821709802562</v>
+        <v>1.367947248140603</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.301291265517901</v>
@@ -20382,7 +20346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.380845859230221</v>
+        <v>1.348380898401588</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.223332146981274</v>
@@ -20471,7 +20435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.406255801648674</v>
+        <v>1.370107954282402</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.268713306939506</v>
@@ -20560,7 +20524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.395673431660839</v>
+        <v>1.365328655704457</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.380711607042763</v>
@@ -20649,7 +20613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.389363196241898</v>
+        <v>1.3602503335871</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.465642697174661</v>
@@ -20738,7 +20702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.386145042193236</v>
+        <v>1.353087931818582</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.457645873734193</v>
@@ -20827,7 +20791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.387360641530569</v>
+        <v>1.353075109973492</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.363186677456319</v>
@@ -20916,7 +20880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.382959648024705</v>
+        <v>1.349780074125905</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.382581836265021</v>
@@ -21005,7 +20969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.398366988768988</v>
+        <v>1.360215003264717</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.517026016200146</v>
@@ -21094,7 +21058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.368353073589406</v>
+        <v>1.33580198636593</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.959125841244511</v>
@@ -21183,7 +21147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.362970378027688</v>
+        <v>1.331928964444065</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.021025154047102</v>
@@ -21272,7 +21236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.37045864165532</v>
+        <v>1.338763426627479</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.003399033458567</v>
@@ -21361,7 +21325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.369952994270467</v>
+        <v>1.334954060375647</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.010521009449464</v>
@@ -21450,7 +21414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.354735620946568</v>
+        <v>1.336686472163225</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.994251243354362</v>
@@ -21539,7 +21503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.362939228932448</v>
+        <v>1.348424985346998</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.030167589777724</v>
@@ -21628,7 +21592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.371276684075074</v>
+        <v>1.358259031345615</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.104658859035923</v>
@@ -21717,7 +21681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.382564558249019</v>
+        <v>1.372793219841078</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.046928718706051</v>
@@ -21806,7 +21770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.369080898824582</v>
+        <v>1.357198709445169</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.898468058999182</v>
@@ -21895,7 +21859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.388072461658871</v>
+        <v>1.37484197369052</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.941608312607756</v>
@@ -21984,7 +21948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.406813208364612</v>
+        <v>1.38949959161472</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.975924899043406</v>
@@ -22073,7 +22037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.404680557287368</v>
+        <v>1.388751075092146</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.036403482551017</v>
@@ -22162,7 +22126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.400201840852809</v>
+        <v>1.384793233046122</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.003055968581807</v>
@@ -22251,7 +22215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.391017778864168</v>
+        <v>1.377302512762135</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.920864137547017</v>
@@ -22340,7 +22304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.403916633591269</v>
+        <v>1.387752004573809</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.90169900430831</v>
@@ -22626,7 +22590,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556711148678254</v>
+        <v>1.553370513120853</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.489404246597268</v>
@@ -22715,7 +22679,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.567183274056561</v>
+        <v>1.557560385479744</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.440801002505084</v>
@@ -22804,7 +22768,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.555417185244214</v>
+        <v>1.550284289260628</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.443848736840517</v>
@@ -22893,7 +22857,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.563312114215815</v>
+        <v>1.563748527854961</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.497554506436259</v>
@@ -22982,7 +22946,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.565533388018202</v>
+        <v>1.566078433356495</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.403165575061248</v>
@@ -23071,7 +23035,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.558254215225327</v>
+        <v>1.561098870498252</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.777886187053889</v>
@@ -23160,7 +23124,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.54156557083505</v>
+        <v>1.545918228250668</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.765464626302216</v>
@@ -23249,7 +23213,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.541783599840109</v>
+        <v>1.542975663512617</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.495792537837645</v>
@@ -23338,7 +23302,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.511507829286417</v>
+        <v>1.50685373694514</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.301629350213985</v>
@@ -23427,7 +23391,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.516224346599457</v>
+        <v>1.514170114635574</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.812284711251108</v>
@@ -23516,7 +23480,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.520733293311078</v>
+        <v>1.518319825980117</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.499943722642878</v>
@@ -23605,7 +23569,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.523012536039248</v>
+        <v>1.522906861814876</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.761811006276638</v>
@@ -23694,7 +23658,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.530934288822867</v>
+        <v>1.527562812728958</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.569050759232204</v>
@@ -23783,7 +23747,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.518614721928566</v>
+        <v>1.512744094692298</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.700022157923316</v>
@@ -23872,7 +23836,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.500452002002335</v>
+        <v>1.489540351458828</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.685013398741421</v>
@@ -23961,7 +23925,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.497771031831279</v>
+        <v>1.485565008983266</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.79229455823318</v>
@@ -24050,7 +24014,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.496865616926774</v>
+        <v>1.488883714424157</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.382809520918205</v>
@@ -24139,7 +24103,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.515249839127002</v>
+        <v>1.49743907477926</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.555176027419943</v>
@@ -24228,7 +24192,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.506517087351327</v>
+        <v>1.480919726187671</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.523997913574192</v>
@@ -24317,7 +24281,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.499074788262514</v>
+        <v>1.466037284802998</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.382109282141258</v>
@@ -24406,7 +24370,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.519114855523549</v>
+        <v>1.482431237401524</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.600562229220258</v>
@@ -24495,7 +24459,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.508410914690353</v>
+        <v>1.470849517306879</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.715402695446728</v>
@@ -24584,7 +24548,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.507444839179567</v>
+        <v>1.466149960353952</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.680895651864187</v>
@@ -24673,7 +24637,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.495066526996817</v>
+        <v>1.453971045209651</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.515239324808637</v>
@@ -24762,7 +24726,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.500665039180913</v>
+        <v>1.454475183327047</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.739975818381606</v>
@@ -24851,7 +24815,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.504944236503891</v>
+        <v>1.452806326766745</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.553271257494102</v>
@@ -24940,7 +24904,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.498539828697369</v>
+        <v>1.449599582785881</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.501030521649639</v>
@@ -25029,7 +24993,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.503307294696604</v>
+        <v>1.457283493816704</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.475982843668447</v>
@@ -25118,7 +25082,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.511351059418813</v>
+        <v>1.465630485458816</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.502917139040446</v>
@@ -25207,7 +25171,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.527274774305783</v>
+        <v>1.481133294680139</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.583443839607082</v>
@@ -25296,7 +25260,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.508622962576444</v>
+        <v>1.466452188028726</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.668479066726589</v>
@@ -25385,7 +25349,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.493967038865754</v>
+        <v>1.451429081546936</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.578628708972718</v>
@@ -25474,7 +25438,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.493688964093785</v>
+        <v>1.45067754527593</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.298397781125904</v>
@@ -25563,7 +25527,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.500874861631849</v>
+        <v>1.459830350953166</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.609955092432093</v>
@@ -25652,7 +25616,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.520357421417963</v>
+        <v>1.481842321374289</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.831608271556833</v>
@@ -25741,7 +25705,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.503174978421641</v>
+        <v>1.469370463413951</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.652040712266964</v>
@@ -25830,7 +25794,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.499544520708333</v>
+        <v>1.466285216022012</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.56663653180052</v>
@@ -25919,7 +25883,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.49331520523185</v>
+        <v>1.465931017085314</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.522519806040923</v>
@@ -26008,7 +25972,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.499816636073363</v>
+        <v>1.468770677212024</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.73377629095039</v>
@@ -26097,7 +26061,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.491956505672269</v>
+        <v>1.460854667971768</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.813856492568459</v>
@@ -26186,7 +26150,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.484787300021657</v>
+        <v>1.453906079362928</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.777273514101911</v>
@@ -26275,7 +26239,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.480658429041563</v>
+        <v>1.454103361554641</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.63206976761099</v>
@@ -26364,7 +26328,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.471616022552036</v>
+        <v>1.441150815837006</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.674331078125171</v>
@@ -26453,7 +26417,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.479705346360053</v>
+        <v>1.447613708098977</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.498669959518583</v>
@@ -26542,7 +26506,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.478761873789695</v>
+        <v>1.444565392328042</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.837104756048059</v>
@@ -26631,7 +26595,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.493382718239597</v>
+        <v>1.457115582724428</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.657464042654753</v>
@@ -26720,7 +26684,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.49612165238089</v>
+        <v>1.459681808208123</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.696979270412347</v>
@@ -26809,7 +26773,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.487494923295017</v>
+        <v>1.460105380962871</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.562015612310686</v>
@@ -26898,7 +26862,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.484573540984119</v>
+        <v>1.459597908592463</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.548012369616001</v>
@@ -27184,7 +27148,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.377464610444413</v>
+        <v>1.369742838068233</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.200187969559994</v>
@@ -27273,7 +27237,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.398924787856018</v>
+        <v>1.388205804920645</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.076104483880409</v>
@@ -27362,7 +27326,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.385815599235326</v>
+        <v>1.377181482083268</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.148156530053981</v>
@@ -27451,7 +27415,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.395239618669062</v>
+        <v>1.388426189970705</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.053096209718396</v>
@@ -27540,7 +27504,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.405665669129905</v>
+        <v>1.398999944288737</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.179531169548563</v>
@@ -27629,7 +27593,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.407423887179639</v>
+        <v>1.401602171575659</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.183399565933802</v>
@@ -27718,7 +27682,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.392712952036603</v>
+        <v>1.394675171589917</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.126061651477352</v>
@@ -27807,7 +27771,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.387864125627082</v>
+        <v>1.386256614742031</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.281153064553684</v>
@@ -27896,7 +27860,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.352092908263162</v>
+        <v>1.343893865494753</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.233519001346282</v>
@@ -27985,7 +27949,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.363711333215436</v>
+        <v>1.355510224034926</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.254362232687642</v>
@@ -28074,7 +28038,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.352224037998221</v>
+        <v>1.344992079969397</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.168221935979967</v>
@@ -28163,7 +28127,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.363758332160535</v>
+        <v>1.354767015664546</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.212666077007272</v>
@@ -28252,7 +28216,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.379960812035739</v>
+        <v>1.3643191003639</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.008666494915582</v>
@@ -28341,7 +28305,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.372307924561845</v>
+        <v>1.358798774898858</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.275782078769599</v>
@@ -28430,7 +28394,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.351662733192564</v>
+        <v>1.337423242813101</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.281405439656574</v>
@@ -28519,7 +28483,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.351952864116344</v>
+        <v>1.339935705776065</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.32277136762203</v>
@@ -28608,7 +28572,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.352298480015146</v>
+        <v>1.342993055936097</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.211475996637236</v>
@@ -28697,7 +28661,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.364252459339149</v>
+        <v>1.346315008507913</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.116664632189934</v>
@@ -28786,7 +28750,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.353812520602467</v>
+        <v>1.334198821148817</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.183674761117245</v>
@@ -28875,7 +28839,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.351096544103064</v>
+        <v>1.328579975269785</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.171159131053331</v>
@@ -28964,7 +28928,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.358566070454504</v>
+        <v>1.338034436887453</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.352295591313898</v>
@@ -29053,7 +29017,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.34361190919752</v>
+        <v>1.321882903943837</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.350592486317513</v>
@@ -29142,7 +29106,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.348567408922172</v>
+        <v>1.325750832811604</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.270077717491162</v>
@@ -29231,7 +29195,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.349831909839566</v>
+        <v>1.319012867302256</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.30090318517195</v>
@@ -29320,7 +29284,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.351333943172669</v>
+        <v>1.321118558525969</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.251905927475668</v>
@@ -29409,7 +29373,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.361880957365762</v>
+        <v>1.323356367923577</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.267090280489341</v>
@@ -29498,7 +29462,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.341399118755269</v>
+        <v>1.313786815900513</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.301199768242184</v>
@@ -29587,7 +29551,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.333545150660433</v>
+        <v>1.310414462283597</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.163803368176033</v>
@@ -29676,7 +29640,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.344124746480312</v>
+        <v>1.3198273675824</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.192867013296226</v>
@@ -29765,7 +29729,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.363547756658388</v>
+        <v>1.338205737973446</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.428505863538161</v>
@@ -29854,7 +29818,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.36917755572187</v>
+        <v>1.338814327957938</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.487835420943659</v>
@@ -29943,7 +29907,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.337253253094875</v>
+        <v>1.309058017786725</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.505528019159423</v>
@@ -30032,7 +29996,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.3559336504935</v>
+        <v>1.327379894885342</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.160462179601532</v>
@@ -30121,7 +30085,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.374984535879425</v>
+        <v>1.34037270324813</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.521225379533337</v>
@@ -30210,7 +30174,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.393502484714293</v>
+        <v>1.357418668358554</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.321317778852881</v>
@@ -30299,7 +30263,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.368085722446446</v>
+        <v>1.334051782486273</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.13260985509222</v>
@@ -30388,7 +30352,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.384017731179654</v>
+        <v>1.346076371684102</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.103203527073592</v>
@@ -30477,7 +30441,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.377375284181627</v>
+        <v>1.338326358875513</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.368131079297005</v>
@@ -30566,7 +30530,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.370179232287057</v>
+        <v>1.340762696298706</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.230560210709066</v>
@@ -30655,7 +30619,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.375148048047365</v>
+        <v>1.342116220800638</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.168725161221337</v>
@@ -30744,7 +30708,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.375913366470385</v>
+        <v>1.341944649385695</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.175535167080218</v>
@@ -30833,7 +30797,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.372523150541014</v>
+        <v>1.340273161297472</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.086542091103851</v>
@@ -30922,7 +30886,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.387213697528749</v>
+        <v>1.351524982813092</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.120881688735506</v>
@@ -31011,7 +30975,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.399525902145822</v>
+        <v>1.365175127249616</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.080395171625168</v>
@@ -31100,7 +31064,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.390309589053729</v>
+        <v>1.355513582681094</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.167484690266736</v>
@@ -31189,7 +31153,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.373630337335021</v>
+        <v>1.338656116592272</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.164582648649028</v>
@@ -31278,7 +31242,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.360215037302749</v>
+        <v>1.332828168167659</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.232150382851433</v>
@@ -31367,7 +31331,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.352575966393585</v>
+        <v>1.330269943958795</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.14550965353274</v>
@@ -31456,7 +31420,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.337436432663274</v>
+        <v>1.320620705291697</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.099681785741883</v>
